--- a/data/stat probs/drew eubanks stat probs - condition.xlsx
+++ b/data/stat probs/drew eubanks stat probs - condition.xlsx
@@ -23,10 +23,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 full" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nop 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
@@ -581,28 +581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2249,28 +2249,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3917,22 +3917,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4367,22 +4367,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4817,28 +4817,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5491,28 +5491,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6097,6 +6097,906 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>88</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>75</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" t="n">
+        <v>88</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>88</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6165,28 +7065,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -6570,1002 +7470,6 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>83</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>67</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>92</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>58</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>42</v>
-      </c>
-      <c r="D9" t="n">
-        <v>58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>42</v>
-      </c>
-      <c r="F9" t="n">
-        <v>58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F10" t="n">
-        <v>67</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>83</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17</v>
-      </c>
-      <c r="D14" t="n">
-        <v>83</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7643,28 +7547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8414,7 +8318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8477,28 +8381,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -8509,28 +8413,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -8541,22 +8445,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -8573,22 +8477,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8605,22 +8509,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>25</v>
       </c>
-      <c r="E6" t="n">
-        <v>83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17</v>
-      </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8637,16 +8541,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8669,16 +8573,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8701,16 +8605,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8733,16 +8637,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8765,16 +8669,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8797,16 +8701,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8829,16 +8733,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8861,10 +8765,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8882,38 +8786,6 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8991,22 +8863,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9665,22 +9537,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10339,22 +10211,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10821,22 +10693,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11303,22 +11175,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11785,22 +11657,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12267,22 +12139,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12685,22 +12557,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13103,22 +12975,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13649,28 +13521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14323,22 +14195,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14869,22 +14741,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15351,22 +15223,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15833,22 +15705,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16347,22 +16219,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16861,28 +16733,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -17311,28 +17183,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -17761,22 +17633,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18179,22 +18051,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18597,22 +18469,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19015,28 +18887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19689,22 +19561,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20107,22 +19979,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20397,22 +20269,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20693,16 +20565,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20887,16 +20759,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21075,22 +20947,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21429,22 +21301,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21783,22 +21655,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22201,22 +22073,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22619,22 +22491,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23133,28 +23005,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -23967,22 +23839,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24481,22 +24353,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24835,22 +24707,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25189,22 +25061,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25607,22 +25479,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26025,22 +25897,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26443,22 +26315,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26861,22 +26733,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27215,22 +27087,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27569,22 +27441,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28019,28 +27891,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -28853,22 +28725,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29303,22 +29175,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29753,22 +29625,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30203,22 +30075,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30653,22 +30525,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31103,22 +30975,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31521,22 +31393,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31939,22 +31811,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32261,22 +32133,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32583,16 +32455,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -32601,10 +32473,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -32905,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -33739,16 +33611,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33757,10 +33629,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -34061,22 +33933,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34415,22 +34287,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34769,28 +34641,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35187,28 +35059,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35605,22 +35477,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35863,22 +35735,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36121,28 +35993,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -36475,28 +36347,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -36829,28 +36701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37375,28 +37247,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -38209,28 +38081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38755,28 +38627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -39173,28 +39045,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -39591,22 +39463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39913,22 +39785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40235,22 +40107,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40397,22 +40269,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40559,22 +40431,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40977,22 +40849,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41395,16 +41267,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41717,28 +41589,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42551,16 +42423,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -42873,22 +42745,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43291,22 +43163,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43715,16 +43587,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -43909,16 +43781,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
